--- a/SAMPLE_input_ShadowPriest.xlsx
+++ b/SAMPLE_input_ShadowPriest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegtutanov/Documents/Programming/FireRes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB26384C-4C9E-7848-A240-02F07ADD49EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68160100-05B3-574E-9240-5F737857C144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9580" yWindow="1440" windowWidth="21240" windowHeight="17500" xr2:uid="{844A505D-6A42-AE4A-B15F-816C60932A50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
   <si>
     <t>Slot</t>
   </si>
@@ -174,6 +174,30 @@
   </si>
   <si>
     <t>Finger2</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Wrist</t>
+  </si>
+  <si>
+    <t>Feet</t>
+  </si>
+  <si>
+    <t>Waist</t>
+  </si>
+  <si>
+    <t>Crown of Prophecy</t>
+  </si>
+  <si>
+    <t>Wristwraps of Prophecy</t>
+  </si>
+  <si>
+    <t>Belt of Prophecy</t>
+  </si>
+  <si>
+    <t>Sandals of Prophecy</t>
   </si>
 </sst>
 </file>
@@ -569,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE70008-0A2C-7E4D-81B7-A1DAF9B1095E}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="F5" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,93 +624,93 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+      <c r="A2" t="s">
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>35</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>51</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+      <c r="A3" t="s">
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+      <c r="A4" t="s">
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
+      <c r="A5" t="s">
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
@@ -696,35 +720,35 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
@@ -734,16 +758,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
@@ -753,16 +777,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>6</v>
@@ -772,54 +796,54 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>6</v>
@@ -829,16 +853,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>6</v>
@@ -848,70 +872,70 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1">
+        <v>41</v>
+      </c>
+      <c r="D17" s="1">
         <v>25</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="1">
-        <v>47</v>
-      </c>
-      <c r="D17" s="1">
-        <v>10</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -924,35 +948,35 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>6</v>
@@ -962,35 +986,35 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D22" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>6</v>
@@ -1000,16 +1024,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D23" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>6</v>
@@ -1019,13 +1043,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -1038,16 +1062,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D25" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>6</v>
@@ -1057,16 +1081,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>6</v>
@@ -1076,13 +1100,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D27" s="1">
         <v>10</v>
@@ -1095,16 +1119,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D28" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>6</v>
@@ -1114,13 +1138,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D29" s="1">
         <v>20</v>
@@ -1133,13 +1157,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -1152,10 +1176,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1">
         <v>13</v>
@@ -1171,57 +1195,129 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="1">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="1">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>10</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://wowhead.com/classic/item=18814" xr:uid="{AB42679C-8F74-814C-BDA2-81DA414A118B}"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://wowhead.com/classic/item=16309" xr:uid="{81B5C844-066E-CA43-94B1-A75653FDBB97}"/>
-    <hyperlink ref="B4" r:id="rId3" display="http://wowhead.com/classic/item=228685" xr:uid="{340A348E-2437-3E42-9C31-A5C13E5A2E6C}"/>
-    <hyperlink ref="B5" r:id="rId4" display="https://www.wowhead.com/classic/item=227808/rugged-mantle-of-the-timbermaw" xr:uid="{855B7A41-7568-9F41-AED2-0CEA48858BA7}"/>
-    <hyperlink ref="B6" r:id="rId5" display="http://wowhead.com/classic/item=227830" xr:uid="{97DC4623-ED33-5C49-9E93-54912A4F9339}"/>
-    <hyperlink ref="B7" r:id="rId6" display="https://www.wowhead.com/classic/item=226581/shoulderpads-of-prophecy" xr:uid="{D93F2D86-476C-2942-8887-D3F496C7A6B0}"/>
-    <hyperlink ref="B8" r:id="rId7" display="http://wowhead.com/classic/item=226955" xr:uid="{0C4AB1D0-C329-0C49-B75A-9B84939AE5AD}"/>
-    <hyperlink ref="B9" r:id="rId8" display="http://wowhead.com/classic/item=228100" xr:uid="{2EFA3C58-89D5-B845-904B-5DABF0CD81A6}"/>
-    <hyperlink ref="B10" r:id="rId9" display="http://wowhead.com/classic/item=227869" xr:uid="{140A7EF5-914C-5544-9987-0049DD10E123}"/>
-    <hyperlink ref="B11" r:id="rId10" display="http://wowhead.com/classic/item=12905" xr:uid="{3FB42A9C-6559-BD4D-8D96-2A934B8256C0}"/>
-    <hyperlink ref="B12" r:id="rId11" display="http://wowhead.com/classic/item=226582" xr:uid="{A721A201-F5A6-5B4B-ADEB-E5CC7AFAA69B}"/>
-    <hyperlink ref="B13" r:id="rId12" display="http://wowhead.com/classic/item=227831" xr:uid="{6299B65F-1F36-EC42-B397-CA56DBD0FA0C}"/>
-    <hyperlink ref="B14" r:id="rId13" display="http://wowhead.com/classic/item=226958" xr:uid="{EECD8B21-1417-4845-8C57-8AD968775408}"/>
-    <hyperlink ref="B15" r:id="rId14" display="http://wowhead.com/classic/item=226585" xr:uid="{7607DBE6-CE3D-5E49-9BC3-4F0CA2D52BB5}"/>
-    <hyperlink ref="B16" r:id="rId15" display="http://wowhead.com/classic/item=227823" xr:uid="{A7E2B5B5-82F3-DB44-9893-0403BE95A0A3}"/>
-    <hyperlink ref="B17" r:id="rId16" display="http://wowhead.com/classic/item=226583" xr:uid="{CB3683EB-EC34-E746-8D83-1A202FA1D1FA}"/>
-    <hyperlink ref="B18" r:id="rId17" display="http://wowhead.com/classic/item=19133" xr:uid="{F7745730-6404-E44E-900F-2A3F6374B6B2}"/>
-    <hyperlink ref="B19" r:id="rId18" display="http://wowhead.com/classic/item=227839" xr:uid="{50B75E55-B62F-FD48-93D4-16CBDDF252F8}"/>
-    <hyperlink ref="B20" r:id="rId19" display="http://wowhead.com/classic/item=228243" xr:uid="{56240C0B-85B0-FB40-94B1-D05D78ED3A77}"/>
-    <hyperlink ref="B21" r:id="rId20" display="http://wowhead.com/classic/item=228045" xr:uid="{1284C580-ECBA-4946-B037-CCD9B9FA6BF7}"/>
-    <hyperlink ref="B22" r:id="rId21" display="http://wowhead.com/classic/item=227454" xr:uid="{F9D70642-381D-AE4B-AE98-8919C3F413A6}"/>
-    <hyperlink ref="B26" r:id="rId22" display="http://wowhead.com/classic/item=12930" xr:uid="{A6E66F0B-242E-AA4C-A3B1-99624C86C145}"/>
-    <hyperlink ref="B27" r:id="rId23" display="http://wowhead.com/classic/item=213347" xr:uid="{CCD7BCFC-ABB8-F74E-BD81-66DD21C6C3E2}"/>
-    <hyperlink ref="B28" r:id="rId24" display="http://wowhead.com/classic/item=227915" xr:uid="{F1D67BD0-FA60-5B41-ACF1-66C7303CEF71}"/>
-    <hyperlink ref="B29" r:id="rId25" display="http://wowhead.com/classic/item=228084" xr:uid="{B8EC5B12-61E6-F848-9437-15CF17856E64}"/>
-    <hyperlink ref="B30" r:id="rId26" display="http://wowhead.com/classic/item=13396" xr:uid="{655912BC-D2CD-BA4A-BF1C-D17DF05A9166}"/>
-    <hyperlink ref="B31" r:id="rId27" display="http://wowhead.com/classic/item=228262" xr:uid="{6A266A57-44A2-E44F-8148-E7B34ED9961A}"/>
-    <hyperlink ref="B32" r:id="rId28" display="http://wowhead.com/classic/item=13004" xr:uid="{0405F483-4D0E-CA48-90EA-FF993F1C60BB}"/>
-    <hyperlink ref="B24" r:id="rId29" display="http://wowhead.com/classic/item=228045" xr:uid="{15544079-94B0-6F42-BBA3-505A54BB5233}"/>
-    <hyperlink ref="B25" r:id="rId30" display="http://wowhead.com/classic/item=227454" xr:uid="{CAAB3A12-05EB-D949-8ED4-8094C47C3504}"/>
-    <hyperlink ref="B23" r:id="rId31" display="http://wowhead.com/classic/item=228687" xr:uid="{5BE1D73D-2812-D642-83C2-3C8171E2B16D}"/>
+    <hyperlink ref="B6" r:id="rId1" display="http://wowhead.com/classic/item=18814" xr:uid="{AB42679C-8F74-814C-BDA2-81DA414A118B}"/>
+    <hyperlink ref="B7" r:id="rId2" display="http://wowhead.com/classic/item=16309" xr:uid="{81B5C844-066E-CA43-94B1-A75653FDBB97}"/>
+    <hyperlink ref="B8" r:id="rId3" display="http://wowhead.com/classic/item=228685" xr:uid="{340A348E-2437-3E42-9C31-A5C13E5A2E6C}"/>
+    <hyperlink ref="B9" r:id="rId4" display="https://www.wowhead.com/classic/item=227808/rugged-mantle-of-the-timbermaw" xr:uid="{855B7A41-7568-9F41-AED2-0CEA48858BA7}"/>
+    <hyperlink ref="B10" r:id="rId5" display="http://wowhead.com/classic/item=227830" xr:uid="{97DC4623-ED33-5C49-9E93-54912A4F9339}"/>
+    <hyperlink ref="B11" r:id="rId6" display="https://www.wowhead.com/classic/item=226581/shoulderpads-of-prophecy" xr:uid="{D93F2D86-476C-2942-8887-D3F496C7A6B0}"/>
+    <hyperlink ref="B12" r:id="rId7" display="http://wowhead.com/classic/item=226955" xr:uid="{0C4AB1D0-C329-0C49-B75A-9B84939AE5AD}"/>
+    <hyperlink ref="B13" r:id="rId8" display="http://wowhead.com/classic/item=228100" xr:uid="{2EFA3C58-89D5-B845-904B-5DABF0CD81A6}"/>
+    <hyperlink ref="B14" r:id="rId9" display="http://wowhead.com/classic/item=227869" xr:uid="{140A7EF5-914C-5544-9987-0049DD10E123}"/>
+    <hyperlink ref="B15" r:id="rId10" display="http://wowhead.com/classic/item=12905" xr:uid="{3FB42A9C-6559-BD4D-8D96-2A934B8256C0}"/>
+    <hyperlink ref="B16" r:id="rId11" display="http://wowhead.com/classic/item=226582" xr:uid="{A721A201-F5A6-5B4B-ADEB-E5CC7AFAA69B}"/>
+    <hyperlink ref="B17" r:id="rId12" display="http://wowhead.com/classic/item=227831" xr:uid="{6299B65F-1F36-EC42-B397-CA56DBD0FA0C}"/>
+    <hyperlink ref="B18" r:id="rId13" display="http://wowhead.com/classic/item=226958" xr:uid="{EECD8B21-1417-4845-8C57-8AD968775408}"/>
+    <hyperlink ref="B19" r:id="rId14" display="http://wowhead.com/classic/item=226585" xr:uid="{7607DBE6-CE3D-5E49-9BC3-4F0CA2D52BB5}"/>
+    <hyperlink ref="B20" r:id="rId15" display="http://wowhead.com/classic/item=227823" xr:uid="{A7E2B5B5-82F3-DB44-9893-0403BE95A0A3}"/>
+    <hyperlink ref="B21" r:id="rId16" display="http://wowhead.com/classic/item=226583" xr:uid="{CB3683EB-EC34-E746-8D83-1A202FA1D1FA}"/>
+    <hyperlink ref="B22" r:id="rId17" display="http://wowhead.com/classic/item=19133" xr:uid="{F7745730-6404-E44E-900F-2A3F6374B6B2}"/>
+    <hyperlink ref="B23" r:id="rId18" display="http://wowhead.com/classic/item=227839" xr:uid="{50B75E55-B62F-FD48-93D4-16CBDDF252F8}"/>
+    <hyperlink ref="B24" r:id="rId19" display="http://wowhead.com/classic/item=228243" xr:uid="{56240C0B-85B0-FB40-94B1-D05D78ED3A77}"/>
+    <hyperlink ref="B25" r:id="rId20" display="http://wowhead.com/classic/item=228045" xr:uid="{1284C580-ECBA-4946-B037-CCD9B9FA6BF7}"/>
+    <hyperlink ref="B26" r:id="rId21" display="http://wowhead.com/classic/item=227454" xr:uid="{F9D70642-381D-AE4B-AE98-8919C3F413A6}"/>
+    <hyperlink ref="B30" r:id="rId22" display="http://wowhead.com/classic/item=12930" xr:uid="{A6E66F0B-242E-AA4C-A3B1-99624C86C145}"/>
+    <hyperlink ref="B31" r:id="rId23" display="http://wowhead.com/classic/item=213347" xr:uid="{CCD7BCFC-ABB8-F74E-BD81-66DD21C6C3E2}"/>
+    <hyperlink ref="B32" r:id="rId24" display="http://wowhead.com/classic/item=227915" xr:uid="{F1D67BD0-FA60-5B41-ACF1-66C7303CEF71}"/>
+    <hyperlink ref="B33" r:id="rId25" display="http://wowhead.com/classic/item=228084" xr:uid="{B8EC5B12-61E6-F848-9437-15CF17856E64}"/>
+    <hyperlink ref="B34" r:id="rId26" display="http://wowhead.com/classic/item=13396" xr:uid="{655912BC-D2CD-BA4A-BF1C-D17DF05A9166}"/>
+    <hyperlink ref="B35" r:id="rId27" display="http://wowhead.com/classic/item=228262" xr:uid="{6A266A57-44A2-E44F-8148-E7B34ED9961A}"/>
+    <hyperlink ref="B36" r:id="rId28" display="http://wowhead.com/classic/item=13004" xr:uid="{0405F483-4D0E-CA48-90EA-FF993F1C60BB}"/>
+    <hyperlink ref="B28" r:id="rId29" display="http://wowhead.com/classic/item=228045" xr:uid="{15544079-94B0-6F42-BBA3-505A54BB5233}"/>
+    <hyperlink ref="B29" r:id="rId30" display="http://wowhead.com/classic/item=227454" xr:uid="{CAAB3A12-05EB-D949-8ED4-8094C47C3504}"/>
+    <hyperlink ref="B27" r:id="rId31" display="http://wowhead.com/classic/item=228687" xr:uid="{5BE1D73D-2812-D642-83C2-3C8171E2B16D}"/>
+    <hyperlink ref="B2" r:id="rId32" display="http://wowhead.com/classic/item=226584" xr:uid="{74A70618-B041-6642-95EE-55D272D15939}"/>
+    <hyperlink ref="B3" r:id="rId33" display="http://wowhead.com/classic/item=226579" xr:uid="{CA4C57A1-4D64-B141-88CF-5B7EFC7CBFB8}"/>
+    <hyperlink ref="B4" r:id="rId34" display="http://wowhead.com/classic/item=226580" xr:uid="{1660CB20-FA83-8C4A-8733-1C850506F84D}"/>
+    <hyperlink ref="B5" r:id="rId35" display="http://wowhead.com/classic/item=226586" xr:uid="{551B9BCD-8755-EA4A-A458-3EF16139906E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SAMPLE_input_ShadowPriest.xlsx
+++ b/SAMPLE_input_ShadowPriest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegtutanov/Documents/Programming/FireRes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68160100-05B3-574E-9240-5F737857C144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75670EE1-7983-2F47-9DB0-FDA0497BC02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9580" yWindow="1440" windowWidth="21240" windowHeight="17500" xr2:uid="{844A505D-6A42-AE4A-B15F-816C60932A50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
   <si>
     <t>Slot</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Neck</t>
-  </si>
-  <si>
     <t>Choker of the Fire Lord</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>Onyxia Tooth Pendant</t>
   </si>
   <si>
-    <t>Shoulder</t>
-  </si>
-  <si>
     <t>Rugged Mantle of the Timbermaw</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>Virtuous Epaulets</t>
   </si>
   <si>
-    <t>Back</t>
-  </si>
-  <si>
     <t>Drape of the Fire Lord</t>
   </si>
   <si>
@@ -92,18 +83,12 @@
     <t>Wildfire Cape</t>
   </si>
   <si>
-    <t>Chest</t>
-  </si>
-  <si>
     <t>Garments of Prophecy</t>
   </si>
   <si>
     <t>Fine Flarecore Robe</t>
   </si>
   <si>
-    <t>Hands</t>
-  </si>
-  <si>
     <t>Virtuous Hands</t>
   </si>
   <si>
@@ -113,9 +98,6 @@
     <t>Fine Flarecore Gloves</t>
   </si>
   <si>
-    <t>Legs</t>
-  </si>
-  <si>
     <t>Leggings of Prophecy</t>
   </si>
   <si>
@@ -149,9 +131,6 @@
     <t>Miniaturized Fire Extinguisher</t>
   </si>
   <si>
-    <t>Wand</t>
-  </si>
-  <si>
     <t>Skul's Ghastly Touch</t>
   </si>
   <si>
@@ -161,33 +140,12 @@
     <t>Torch of Austen</t>
   </si>
   <si>
-    <t>Trinket</t>
-  </si>
-  <si>
     <t>ShadowEP</t>
   </si>
   <si>
     <t>FireRes</t>
   </si>
   <si>
-    <t>Finger1</t>
-  </si>
-  <si>
-    <t>Finger2</t>
-  </si>
-  <si>
-    <t>Head</t>
-  </si>
-  <si>
-    <t>Wrist</t>
-  </si>
-  <si>
-    <t>Feet</t>
-  </si>
-  <si>
-    <t>Waist</t>
-  </si>
-  <si>
     <t>Crown of Prophecy</t>
   </si>
   <si>
@@ -198,6 +156,54 @@
   </si>
   <si>
     <t>Sandals of Prophecy</t>
+  </si>
+  <si>
+    <t>2. Neck</t>
+  </si>
+  <si>
+    <t>1. Head</t>
+  </si>
+  <si>
+    <t>3. Shoulder</t>
+  </si>
+  <si>
+    <t>4. Back</t>
+  </si>
+  <si>
+    <t>5. Chest</t>
+  </si>
+  <si>
+    <t>6. Wrist</t>
+  </si>
+  <si>
+    <t>7. Hands</t>
+  </si>
+  <si>
+    <t>8. Waist</t>
+  </si>
+  <si>
+    <t>9. Legs</t>
+  </si>
+  <si>
+    <t>Talisman of Ephemeral Power</t>
+  </si>
+  <si>
+    <t>10. Feet</t>
+  </si>
+  <si>
+    <t>11. Finger1</t>
+  </si>
+  <si>
+    <t>12. Finger2</t>
+  </si>
+  <si>
+    <t>13. Trinket1</t>
+  </si>
+  <si>
+    <t>14. Trinket2</t>
+  </si>
+  <si>
+    <t>15. Wand</t>
   </si>
 </sst>
 </file>
@@ -593,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE70008-0A2C-7E4D-81B7-A1DAF9B1095E}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F1:F5"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,10 +618,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -625,10 +631,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>51</v>
@@ -644,10 +650,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>29</v>
@@ -663,10 +669,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>32</v>
@@ -682,10 +688,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>32</v>
@@ -701,10 +707,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>35</v>
@@ -713,17 +719,17 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -732,17 +738,17 @@
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>8</v>
@@ -751,17 +757,17 @@
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>38</v>
@@ -770,17 +776,17 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>24</v>
@@ -789,17 +795,17 @@
         <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>28</v>
@@ -815,10 +821,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
         <v>28</v>
@@ -827,17 +833,17 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>23</v>
@@ -846,17 +852,17 @@
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>20</v>
@@ -865,17 +871,17 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -884,17 +890,17 @@
         <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
         <v>54</v>
@@ -910,10 +916,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
         <v>41</v>
@@ -922,17 +928,17 @@
         <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
         <v>37</v>
@@ -941,17 +947,17 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1">
         <v>31</v>
@@ -967,10 +973,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
         <v>23</v>
@@ -979,17 +985,17 @@
         <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
         <v>47</v>
@@ -1005,10 +1011,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1">
         <v>64</v>
@@ -1017,17 +1023,17 @@
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1">
         <v>44</v>
@@ -1036,169 +1042,168 @@
         <v>20</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1">
         <v>29</v>
       </c>
-      <c r="C24" s="1">
-        <v>34</v>
-      </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D27" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
       </c>
       <c r="C28" s="1">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D29" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -1207,77 +1212,60 @@
         <v>20</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D33" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D35" s="1">
         <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
-        <v>10</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1301,23 +1289,21 @@
     <hyperlink ref="B21" r:id="rId16" display="http://wowhead.com/classic/item=226583" xr:uid="{CB3683EB-EC34-E746-8D83-1A202FA1D1FA}"/>
     <hyperlink ref="B22" r:id="rId17" display="http://wowhead.com/classic/item=19133" xr:uid="{F7745730-6404-E44E-900F-2A3F6374B6B2}"/>
     <hyperlink ref="B23" r:id="rId18" display="http://wowhead.com/classic/item=227839" xr:uid="{50B75E55-B62F-FD48-93D4-16CBDDF252F8}"/>
-    <hyperlink ref="B24" r:id="rId19" display="http://wowhead.com/classic/item=228243" xr:uid="{56240C0B-85B0-FB40-94B1-D05D78ED3A77}"/>
-    <hyperlink ref="B25" r:id="rId20" display="http://wowhead.com/classic/item=228045" xr:uid="{1284C580-ECBA-4946-B037-CCD9B9FA6BF7}"/>
-    <hyperlink ref="B26" r:id="rId21" display="http://wowhead.com/classic/item=227454" xr:uid="{F9D70642-381D-AE4B-AE98-8919C3F413A6}"/>
-    <hyperlink ref="B30" r:id="rId22" display="http://wowhead.com/classic/item=12930" xr:uid="{A6E66F0B-242E-AA4C-A3B1-99624C86C145}"/>
-    <hyperlink ref="B31" r:id="rId23" display="http://wowhead.com/classic/item=213347" xr:uid="{CCD7BCFC-ABB8-F74E-BD81-66DD21C6C3E2}"/>
-    <hyperlink ref="B32" r:id="rId24" display="http://wowhead.com/classic/item=227915" xr:uid="{F1D67BD0-FA60-5B41-ACF1-66C7303CEF71}"/>
-    <hyperlink ref="B33" r:id="rId25" display="http://wowhead.com/classic/item=228084" xr:uid="{B8EC5B12-61E6-F848-9437-15CF17856E64}"/>
-    <hyperlink ref="B34" r:id="rId26" display="http://wowhead.com/classic/item=13396" xr:uid="{655912BC-D2CD-BA4A-BF1C-D17DF05A9166}"/>
-    <hyperlink ref="B35" r:id="rId27" display="http://wowhead.com/classic/item=228262" xr:uid="{6A266A57-44A2-E44F-8148-E7B34ED9961A}"/>
-    <hyperlink ref="B36" r:id="rId28" display="http://wowhead.com/classic/item=13004" xr:uid="{0405F483-4D0E-CA48-90EA-FF993F1C60BB}"/>
-    <hyperlink ref="B28" r:id="rId29" display="http://wowhead.com/classic/item=228045" xr:uid="{15544079-94B0-6F42-BBA3-505A54BB5233}"/>
-    <hyperlink ref="B29" r:id="rId30" display="http://wowhead.com/classic/item=227454" xr:uid="{CAAB3A12-05EB-D949-8ED4-8094C47C3504}"/>
-    <hyperlink ref="B27" r:id="rId31" display="http://wowhead.com/classic/item=228687" xr:uid="{5BE1D73D-2812-D642-83C2-3C8171E2B16D}"/>
-    <hyperlink ref="B2" r:id="rId32" display="http://wowhead.com/classic/item=226584" xr:uid="{74A70618-B041-6642-95EE-55D272D15939}"/>
-    <hyperlink ref="B3" r:id="rId33" display="http://wowhead.com/classic/item=226579" xr:uid="{CA4C57A1-4D64-B141-88CF-5B7EFC7CBFB8}"/>
-    <hyperlink ref="B4" r:id="rId34" display="http://wowhead.com/classic/item=226580" xr:uid="{1660CB20-FA83-8C4A-8733-1C850506F84D}"/>
-    <hyperlink ref="B5" r:id="rId35" display="http://wowhead.com/classic/item=226586" xr:uid="{551B9BCD-8755-EA4A-A458-3EF16139906E}"/>
+    <hyperlink ref="B25" r:id="rId19" display="http://wowhead.com/classic/item=228243" xr:uid="{56240C0B-85B0-FB40-94B1-D05D78ED3A77}"/>
+    <hyperlink ref="B29" r:id="rId20" display="http://wowhead.com/classic/item=12930" xr:uid="{A6E66F0B-242E-AA4C-A3B1-99624C86C145}"/>
+    <hyperlink ref="B30" r:id="rId21" display="http://wowhead.com/classic/item=213347" xr:uid="{CCD7BCFC-ABB8-F74E-BD81-66DD21C6C3E2}"/>
+    <hyperlink ref="B31" r:id="rId22" display="http://wowhead.com/classic/item=227915" xr:uid="{F1D67BD0-FA60-5B41-ACF1-66C7303CEF71}"/>
+    <hyperlink ref="B32" r:id="rId23" display="http://wowhead.com/classic/item=228084" xr:uid="{B8EC5B12-61E6-F848-9437-15CF17856E64}"/>
+    <hyperlink ref="B33" r:id="rId24" display="http://wowhead.com/classic/item=13396" xr:uid="{655912BC-D2CD-BA4A-BF1C-D17DF05A9166}"/>
+    <hyperlink ref="B34" r:id="rId25" display="http://wowhead.com/classic/item=228262" xr:uid="{6A266A57-44A2-E44F-8148-E7B34ED9961A}"/>
+    <hyperlink ref="B35" r:id="rId26" display="http://wowhead.com/classic/item=13004" xr:uid="{0405F483-4D0E-CA48-90EA-FF993F1C60BB}"/>
+    <hyperlink ref="B26" r:id="rId27" display="http://wowhead.com/classic/item=228045" xr:uid="{15544079-94B0-6F42-BBA3-505A54BB5233}"/>
+    <hyperlink ref="B27" r:id="rId28" display="http://wowhead.com/classic/item=227454" xr:uid="{CAAB3A12-05EB-D949-8ED4-8094C47C3504}"/>
+    <hyperlink ref="B24" r:id="rId29" display="http://wowhead.com/classic/item=228687" xr:uid="{5BE1D73D-2812-D642-83C2-3C8171E2B16D}"/>
+    <hyperlink ref="B2" r:id="rId30" display="http://wowhead.com/classic/item=226584" xr:uid="{74A70618-B041-6642-95EE-55D272D15939}"/>
+    <hyperlink ref="B3" r:id="rId31" display="http://wowhead.com/classic/item=226579" xr:uid="{CA4C57A1-4D64-B141-88CF-5B7EFC7CBFB8}"/>
+    <hyperlink ref="B4" r:id="rId32" display="http://wowhead.com/classic/item=226580" xr:uid="{1660CB20-FA83-8C4A-8733-1C850506F84D}"/>
+    <hyperlink ref="B5" r:id="rId33" display="http://wowhead.com/classic/item=226586" xr:uid="{551B9BCD-8755-EA4A-A458-3EF16139906E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
